--- a/tests/5782 Regular A4.xlsx
+++ b/tests/5782 Regular A4.xlsx
@@ -8528,11 +8528,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1"/>
     <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf applyFont="1" fontId="2"/>
     <xf applyFont="1" fontId="3"/>
@@ -8588,7 +8588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="false" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -12116,3235 +12116,3235 @@
         <v>596</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A91" s="21" t="s">
+    <row r="93" spans="1:14" ht="12.3" customHeight="1">
+      <c r="A93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A94" s="21" t="s">
         <v>635</v>
       </c>
-      <c r="B91" s="20" t="s">
+      <c r="B94" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C94" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D94" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E94" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F94" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G94" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="H91" s="20" t="s">
+      <c r="H94" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I94" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="J91" s="20" t="s">
+      <c r="J94" s="20" t="s">
         <v>622</v>
       </c>
-      <c r="K91" s="21" t="s">
+      <c r="K94" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="L91" s="20" t="s">
+      <c r="L94" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="M91" s="21" t="s">
+      <c r="M94" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="N91" s="20" t="s">
+      <c r="N94" s="20" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="8" customHeight="1">
-      <c r="A92" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="24" t="s">
+    <row r="95" spans="1:14" ht="8" customHeight="1">
+      <c r="A95" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D95" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="F95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="G95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="H92" s="24" t="s">
+      <c r="H95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J92" s="24" t="s">
+      <c r="J95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="K92" s="24" t="s">
+      <c r="K95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="L92" s="24" t="s">
+      <c r="L95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="M92" s="24" t="s">
+      <c r="M95" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="N92" s="24" t="s">
+      <c r="N95" s="24" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A93" s="22" t="s">
+    <row r="96" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A96" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B96" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17" t="s">
+      <c r="C96" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F96" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G96" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="H93" s="17" t="s">
+      <c r="H96" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="I93" s="17" t="s">
+      <c r="I96" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J96" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="K93" s="17" t="s">
+      <c r="K96" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="L93" s="17" t="s">
+      <c r="L96" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="M93" s="17" t="s">
+      <c r="M96" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="N93" s="17" t="s">
+      <c r="N96" s="17" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="12.3" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N94" s="4"/>
-    </row>
-    <row r="95" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A95" s="21" t="s">
+    <row r="97" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A97" s="21" t="s">
         <v>656</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B97" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C97" s="21" t="s">
         <v>653</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D97" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F97" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G97" s="21" t="s">
         <v>647</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="H97" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="I95" s="21" t="s">
+      <c r="I97" s="21" t="s">
         <v>644</v>
       </c>
-      <c r="J95" s="20" t="s">
+      <c r="J97" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="K95" s="21" t="s">
+      <c r="K97" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="L95" s="20" t="s">
+      <c r="L97" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="M95" s="21" t="s">
+      <c r="M97" s="21" t="s">
         <v>638</v>
       </c>
-      <c r="N95" s="20" t="s">
+      <c r="N97" s="20" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="8" customHeight="1">
-      <c r="A96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N96" s="19"/>
-    </row>
-    <row r="97" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A97" s="22" t="s">
+    <row r="98" spans="1:14" ht="8" customHeight="1">
+      <c r="A98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N98" s="19"/>
+    </row>
+    <row r="99" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A99" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B99" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C99" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D99" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E99" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F99" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G99" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="H97" s="17" t="s">
+      <c r="H99" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="I97" s="17" t="s">
+      <c r="I99" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="J97" s="17" t="s">
+      <c r="J99" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="K97" s="17" t="s">
+      <c r="K99" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="L97" s="17" t="s">
+      <c r="L99" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="M97" s="17" t="s">
+      <c r="M99" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="N97" s="17" t="s">
+      <c r="N99" s="17" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A98" s="21" t="s">
+    <row r="100" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A100" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B100" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C100" s="21" t="s">
         <v>675</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D100" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="E98" s="21" t="s">
+      <c r="E100" s="21" t="s">
         <v>672</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F100" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G100" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="H98" s="20" t="s">
+      <c r="H100" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="I98" s="21" t="s">
+      <c r="I100" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="J98" s="20" t="s">
+      <c r="J100" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="K98" s="21" t="s">
+      <c r="K100" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="L98" s="20" t="s">
+      <c r="L100" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="M98" s="21" t="s">
+      <c r="M100" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="N98" s="20" t="s">
+      <c r="N100" s="20" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="8" customHeight="1">
-      <c r="A99" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="24" t="s">
+    <row r="101" spans="1:14" ht="8" customHeight="1">
+      <c r="A101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F101" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G101" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="H99" s="24" t="s">
+      <c r="H101" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="I99" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N99" s="19"/>
-    </row>
-    <row r="100" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A100" s="22" t="s">
+      <c r="I101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N101" s="19"/>
+    </row>
+    <row r="102" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A102" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B102" s="22" t="s">
         <v>679</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C102" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D102" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17" t="s">
+      <c r="E102" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H102" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I100" s="17" t="s">
+      <c r="I102" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="J100" s="17" t="s">
+      <c r="J102" s="17" t="s">
         <v>666</v>
       </c>
-      <c r="K100" s="17" t="s">
+      <c r="K102" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="L100" s="17" t="s">
+      <c r="L102" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="M102" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="N100" s="17" t="s">
+      <c r="N102" s="17" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A101" s="21" t="s">
+    <row r="103" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A103" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B103" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>696</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D103" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E103" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F103" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G103" s="21" t="s">
         <v>690</v>
       </c>
-      <c r="H101" s="20" t="s">
+      <c r="H103" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I103" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="J101" s="20" t="s">
+      <c r="J103" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="K101" s="21" t="s">
+      <c r="K103" s="21" t="s">
         <v>684</v>
       </c>
-      <c r="L101" s="20" t="s">
+      <c r="L103" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="M101" s="21" t="s">
+      <c r="M103" s="21" t="s">
         <v>681</v>
       </c>
-      <c r="N101" s="20" t="s">
+      <c r="N103" s="20" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="8" customHeight="1">
-      <c r="A102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N102" s="19"/>
-    </row>
-    <row r="103" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A103" s="22" t="s">
+    <row r="104" spans="1:14" ht="8" customHeight="1">
+      <c r="A104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N104" s="19"/>
+    </row>
+    <row r="105" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A105" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B105" s="22" t="s">
         <v>700</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C105" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D105" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E105" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F105" s="17" t="s">
         <v>694</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G105" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="H103" s="17" t="s">
+      <c r="H105" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="I103" s="17" t="s">
+      <c r="I105" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="J103" s="17" t="s">
+      <c r="J105" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="K103" s="17" t="s">
+      <c r="K105" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="L103" s="17" t="s">
+      <c r="L105" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="M103" s="17" t="s">
+      <c r="M105" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="N103" s="17" t="s">
+      <c r="N105" s="17" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A104" s="21" t="s">
+    <row r="106" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A106" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="B104" s="20" t="s">
+      <c r="B106" s="20" t="s">
         <v>719</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>717</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D106" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="E104" s="21" t="s">
+      <c r="E106" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F106" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G106" s="21" t="s">
         <v>711</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H106" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="I104" s="21" t="s">
+      <c r="I106" s="21" t="s">
         <v>708</v>
       </c>
-      <c r="J104" s="20" t="s">
+      <c r="J106" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="K104" s="21" t="s">
+      <c r="K106" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="L104" s="20" t="s">
+      <c r="L106" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="M104" s="21" t="s">
+      <c r="M106" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="N104" s="20" t="s">
+      <c r="N106" s="20" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="8" customHeight="1">
-      <c r="A105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N105" s="19"/>
-    </row>
-    <row r="106" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A106" s="22" t="s">
+    <row r="107" spans="1:14" ht="8" customHeight="1">
+      <c r="A107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N107" s="19"/>
+    </row>
+    <row r="108" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A108" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B108" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C108" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D108" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E108" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F108" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G108" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="H106" s="17" t="s">
+      <c r="H108" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="I108" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="J106" s="17" t="s">
+      <c r="J108" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="K106" s="17" t="s">
+      <c r="K108" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="L106" s="17" t="s">
+      <c r="L108" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="M106" s="17" t="s">
+      <c r="M108" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="N106" s="17" t="s">
+      <c r="N108" s="17" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A107" s="21" t="s">
+    <row r="109" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A109" s="21" t="s">
         <v>741</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B109" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C109" s="21" t="s">
         <v>738</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D109" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="E107" s="21" t="s">
+      <c r="E109" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F109" s="20" t="s">
         <v>734</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="G109" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="H107" s="20" t="s">
+      <c r="H109" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="I107" s="21" t="s">
+      <c r="I109" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="J107" s="20" t="s">
+      <c r="J109" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="K107" s="21" t="s">
+      <c r="K109" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="L107" s="20" t="s">
+      <c r="L109" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="M107" s="21" t="s">
+      <c r="M109" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="N107" s="20" t="s">
+      <c r="N109" s="20" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="8" customHeight="1">
-      <c r="A108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N108" s="19"/>
-    </row>
-    <row r="109" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A109" s="22" t="s">
+    <row r="110" spans="1:14" ht="8" customHeight="1">
+      <c r="A110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N110" s="19"/>
+    </row>
+    <row r="111" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A111" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B111" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C111" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D111" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E111" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F111" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G111" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="H109" s="17" t="s">
+      <c r="H111" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="I109" s="17" t="s">
+      <c r="I111" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="J109" s="17" t="s">
+      <c r="J111" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="K109" s="17" t="s">
+      <c r="K111" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="L109" s="17" t="s">
+      <c r="L111" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="M109" s="17" t="s">
+      <c r="M111" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="N109" s="17" t="s">
+      <c r="N111" s="17" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A110" s="21" t="s">
+    <row r="112" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A112" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B112" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C112" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D112" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E112" s="21" t="s">
         <v>756</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F112" s="20" t="s">
         <v>755</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G112" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="H110" s="20" t="s">
+      <c r="H112" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="I112" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="J110" s="20" t="s">
+      <c r="J112" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="K110" s="21" t="s">
+      <c r="K112" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="L110" s="20" t="s">
+      <c r="L112" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="M110" s="21" t="s">
+      <c r="M112" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="N110" s="20" t="s">
+      <c r="N112" s="20" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="8" customHeight="1">
-      <c r="A111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N111" s="19"/>
-    </row>
-    <row r="112" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A112" s="22" t="s">
+    <row r="113" spans="1:14" ht="8" customHeight="1">
+      <c r="A113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N113" s="19"/>
+    </row>
+    <row r="114" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A114" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B114" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C114" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D114" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E114" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="F112" s="17" t="s">
+      <c r="F114" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G114" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="H112" s="17" t="s">
+      <c r="H114" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="I112" s="17" t="s">
+      <c r="I114" s="17" t="s">
         <v>751</v>
       </c>
-      <c r="J112" s="17" t="s">
+      <c r="J114" s="17" t="s">
         <v>751</v>
       </c>
-      <c r="K112" s="17" t="s">
+      <c r="K114" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="L112" s="17" t="s">
+      <c r="L114" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="M112" s="17" t="s">
+      <c r="M114" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="N112" s="17" t="s">
+      <c r="N114" s="17" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A113" s="21" t="s">
+    <row r="115" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A115" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B115" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C115" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="D115" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E115" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="F113" s="20" t="s">
+      <c r="F115" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="G113" s="21" t="s">
+      <c r="G115" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="H113" s="20" t="s">
+      <c r="H115" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="I113" s="21" t="s">
+      <c r="I115" s="21" t="s">
         <v>771</v>
       </c>
-      <c r="J113" s="20" t="s">
+      <c r="J115" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="K113" s="21" t="s">
+      <c r="K115" s="21" t="s">
         <v>768</v>
       </c>
-      <c r="L113" s="20" t="s">
+      <c r="L115" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="M113" s="21" t="s">
+      <c r="M115" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="N113" s="20" t="s">
+      <c r="N115" s="20" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="8" customHeight="1">
-      <c r="A114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L114" s="19"/>
-      <c r="M114" s="24" t="s">
+    <row r="116" spans="1:14" ht="8" customHeight="1">
+      <c r="A116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116" s="19"/>
+      <c r="M116" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="N114" s="24" t="s">
+      <c r="N116" s="24" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A115" s="22" t="s">
+    <row r="117" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A117" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B117" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C117" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D117" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E117" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F117" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G117" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="H115" s="17" t="s">
+      <c r="H117" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="I115" s="17" t="s">
+      <c r="I117" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="J115" s="17" t="s">
+      <c r="J117" s="17" t="s">
         <v>772</v>
       </c>
-      <c r="K115" s="17" t="s">
+      <c r="K117" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="L115" s="17" t="s">
+      <c r="L117" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="M115" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N115" s="17"/>
-    </row>
-    <row r="116" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A116" s="21" t="s">
+      <c r="M117" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117" s="17"/>
+    </row>
+    <row r="118" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A118" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B118" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C118" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="D118" s="20" t="s">
         <v>800</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E118" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="F116" s="20" t="s">
+      <c r="F118" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="G118" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="H116" s="20" t="s">
+      <c r="H118" s="20" t="s">
         <v>794</v>
       </c>
-      <c r="I116" s="21" t="s">
+      <c r="I118" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="J116" s="20" t="s">
+      <c r="J118" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="K116" s="21" t="s">
+      <c r="K118" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="L116" s="20" t="s">
+      <c r="L118" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="M116" s="21" t="s">
+      <c r="M118" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="N116" s="20" t="s">
+      <c r="N118" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="8" customHeight="1">
-      <c r="A117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N117" s="19"/>
-    </row>
-    <row r="118" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A118" s="22" t="s">
+    <row r="119" spans="1:14" ht="8" customHeight="1">
+      <c r="A119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N119" s="19"/>
+    </row>
+    <row r="120" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A120" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B120" s="22" t="s">
         <v>805</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C120" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D120" s="17" t="s">
         <v>802</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E120" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F120" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G120" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="H118" s="17" t="s">
+      <c r="H120" s="17" t="s">
         <v>796</v>
       </c>
-      <c r="I118" s="17" t="s">
+      <c r="I120" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="J118" s="17" t="s">
+      <c r="J120" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="K118" s="17" t="s">
+      <c r="K120" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="L118" s="17" t="s">
+      <c r="L120" s="17" t="s">
         <v>790</v>
       </c>
-      <c r="M118" s="17" t="s">
+      <c r="M120" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="N118" s="17" t="s">
+      <c r="N120" s="17" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A119" s="21" t="s">
+    <row r="121" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A121" s="21" t="s">
         <v>825</v>
       </c>
-      <c r="B119" s="20" t="s">
+      <c r="B121" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C121" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D121" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E121" s="21" t="s">
         <v>819</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="F121" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="G119" s="21" t="s">
+      <c r="G121" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H121" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="I119" s="21" t="s">
+      <c r="I121" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="J119" s="20" t="s">
+      <c r="J121" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="K119" s="21" t="s">
+      <c r="K121" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="L119" s="20" t="s">
+      <c r="L121" s="20" t="s">
         <v>809</v>
       </c>
-      <c r="M119" s="21" t="s">
+      <c r="M121" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="N119" s="20" t="s">
+      <c r="N121" s="20" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="8" customHeight="1">
-      <c r="A120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N120" s="19"/>
-    </row>
-    <row r="121" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A121" s="22" t="s">
+    <row r="122" spans="1:14" ht="8" customHeight="1">
+      <c r="A122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N122" s="19"/>
+    </row>
+    <row r="123" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A123" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="B121" s="22" t="s">
+      <c r="B123" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C123" s="17" t="s">
         <v>823</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D123" s="17" t="s">
         <v>823</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E123" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="F121" s="17" t="s">
+      <c r="F123" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G123" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H123" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="I121" s="17" t="s">
+      <c r="I123" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="J121" s="17" t="s">
+      <c r="J123" s="17" t="s">
         <v>814</v>
       </c>
-      <c r="K121" s="17" t="s">
+      <c r="K123" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="L121" s="17" t="s">
+      <c r="L123" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="M121" s="17" t="s">
+      <c r="M123" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="N121" s="17" t="s">
+      <c r="N123" s="17" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A122" s="21" t="s">
+    <row r="124" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A124" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B124" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C124" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="D124" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E124" s="21" t="s">
         <v>840</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F124" s="20" t="s">
         <v>839</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G124" s="21" t="s">
         <v>837</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H124" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="I122" s="21" t="s">
+      <c r="I124" s="21" t="s">
         <v>834</v>
       </c>
-      <c r="J122" s="20" t="s">
+      <c r="J124" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="K122" s="21" t="s">
+      <c r="K124" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="L122" s="20" t="s">
+      <c r="L124" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="M122" s="21" t="s">
+      <c r="M124" s="21" t="s">
         <v>828</v>
       </c>
-      <c r="N122" s="20" t="s">
+      <c r="N124" s="20" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="8" customHeight="1">
-      <c r="A123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N123" s="19"/>
-    </row>
-    <row r="124" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A124" s="22" t="s">
+    <row r="125" spans="1:14" ht="8" customHeight="1">
+      <c r="A125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N125" s="19"/>
+    </row>
+    <row r="126" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A126" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="B124" s="22" t="s">
+      <c r="B126" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C126" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D126" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E126" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="F124" s="17" t="s">
+      <c r="F126" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="G124" s="17" t="s">
+      <c r="G126" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="H124" s="17" t="s">
+      <c r="H126" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="I124" s="17" t="s">
+      <c r="I126" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="J124" s="17" t="s">
+      <c r="J126" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="K124" s="17" t="s">
+      <c r="K126" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="L124" s="17" t="s">
+      <c r="L126" s="17" t="s">
         <v>832</v>
       </c>
-      <c r="M124" s="17" t="s">
+      <c r="M126" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="N124" s="17" t="s">
+      <c r="N126" s="17" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A125" s="21" t="s">
+    <row r="127" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A127" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B127" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>864</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D127" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F127" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G127" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="H125" s="20" t="s">
+      <c r="H127" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="I125" s="21" t="s">
+      <c r="I127" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J127" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="K125" s="21" t="s">
+      <c r="K127" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="L125" s="20" t="s">
+      <c r="L127" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="M125" s="21" t="s">
+      <c r="M127" s="21" t="s">
         <v>849</v>
       </c>
-      <c r="N125" s="20" t="s">
+      <c r="N127" s="20" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="8" customHeight="1">
-      <c r="A126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N126" s="19"/>
-    </row>
-    <row r="127" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A127" s="22" t="s">
+    <row r="128" spans="1:14" ht="8" customHeight="1">
+      <c r="A128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N128" s="19"/>
+    </row>
+    <row r="129" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A129" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B129" s="22" t="s">
         <v>868</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C129" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D129" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E129" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="F127" s="17" t="s">
+      <c r="F129" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="G127" s="17" t="s">
+      <c r="G129" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="H127" s="17" t="s">
+      <c r="H129" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="I127" s="17" t="s">
+      <c r="I129" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="J127" s="17" t="s">
+      <c r="J129" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="K127" s="17" t="s">
+      <c r="K129" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="L127" s="17" t="s">
+      <c r="L129" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="M127" s="17" t="s">
+      <c r="M129" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="N127" s="17" t="s">
+      <c r="N129" s="17" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A128" s="21" t="s">
+    <row r="130" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A130" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B130" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C130" s="21" t="s">
         <v>885</v>
       </c>
-      <c r="D128" s="20" t="s">
+      <c r="D130" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E130" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="F128" s="20" t="s">
+      <c r="F130" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G130" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H130" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="I128" s="21" t="s">
+      <c r="I130" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="J128" s="20" t="s">
+      <c r="J130" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="K128" s="21" t="s">
+      <c r="K130" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="L128" s="20" t="s">
+      <c r="L130" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="M128" s="21" t="s">
+      <c r="M130" s="21" t="s">
         <v>870</v>
       </c>
-      <c r="N128" s="20" t="s">
+      <c r="N130" s="20" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="8" customHeight="1">
-      <c r="A129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N129" s="19"/>
-    </row>
-    <row r="130" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A130" s="22" t="s">
+    <row r="131" spans="1:14" ht="8" customHeight="1">
+      <c r="A131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N131" s="19"/>
+    </row>
+    <row r="132" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A132" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B132" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C132" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D132" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E132" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F132" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="G130" s="17" t="s">
+      <c r="G132" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="H130" s="17" t="s">
+      <c r="H132" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="I130" s="17" t="s">
+      <c r="I132" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="J130" s="17" t="s">
+      <c r="J132" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="K130" s="17" t="s">
+      <c r="K132" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="L130" s="17" t="s">
+      <c r="L132" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="M130" s="17" t="s">
+      <c r="M132" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="N130" s="17" t="s">
+      <c r="N132" s="17" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A131" s="21" t="s">
+    <row r="133" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A133" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B133" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C133" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D133" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E133" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="F131" s="20" t="s">
+      <c r="F133" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G133" s="21" t="s">
         <v>901</v>
       </c>
-      <c r="H131" s="20" t="s">
+      <c r="H133" s="20" t="s">
         <v>900</v>
       </c>
-      <c r="I131" s="21" t="s">
+      <c r="I133" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="J131" s="20" t="s">
+      <c r="J133" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="K131" s="21" t="s">
+      <c r="K133" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="L131" s="20" t="s">
+      <c r="L133" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="M131" s="21" t="s">
+      <c r="M133" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="N131" s="20" t="s">
+      <c r="N133" s="20" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="8" customHeight="1">
-      <c r="A132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L132" s="19"/>
-      <c r="M132" s="24" t="s">
+    <row r="134" spans="1:14" ht="8" customHeight="1">
+      <c r="A134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L134" s="19"/>
+      <c r="M134" s="24" t="s">
         <v>892</v>
       </c>
-      <c r="N132" s="24" t="s">
+      <c r="N134" s="24" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A133" s="22" t="s">
+    <row r="135" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A135" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="B133" s="22" t="s">
+      <c r="B135" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C135" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D135" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E135" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F135" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="G133" s="17" t="s">
+      <c r="G135" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="H133" s="17" t="s">
+      <c r="H135" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="I133" s="17" t="s">
+      <c r="I135" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="J133" s="17" t="s">
+      <c r="J135" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="K133" s="17" t="s">
+      <c r="K135" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="L133" s="17" t="s">
+      <c r="L135" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="M133" s="17" t="s">
+      <c r="M135" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="N133" s="17" t="s">
+      <c r="N135" s="17" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A134" s="21" t="s">
+    <row r="136" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A136" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B136" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D136" s="20" t="s">
         <v>927</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E136" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="F134" s="20" t="s">
+      <c r="F136" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G136" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="H134" s="20" t="s">
+      <c r="H136" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="I134" s="21" t="s">
+      <c r="I136" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="J134" s="20" t="s">
+      <c r="J136" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="K134" s="21" t="s">
+      <c r="K136" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="L134" s="20" t="s">
+      <c r="L136" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="M134" s="21" t="s">
+      <c r="M136" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="N134" s="20" t="s">
+      <c r="N136" s="20" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="8" customHeight="1">
-      <c r="A135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N135" s="19"/>
-    </row>
-    <row r="136" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A136" s="22" t="s">
+    <row r="137" spans="1:14" ht="8" customHeight="1">
+      <c r="A137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N137" s="19"/>
+    </row>
+    <row r="138" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A138" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B138" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C138" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D138" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E138" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="F136" s="17" t="s">
+      <c r="F138" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="G136" s="17" t="s">
+      <c r="G138" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="H138" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="I136" s="17" t="s">
+      <c r="I138" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="J136" s="17" t="s">
+      <c r="J138" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="K136" s="17" t="s">
+      <c r="K138" s="17" t="s">
         <v>917</v>
       </c>
-      <c r="L136" s="17" t="s">
+      <c r="L138" s="17" t="s">
         <v>917</v>
       </c>
-      <c r="M136" s="17" t="s">
+      <c r="M138" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="N136" s="17" t="s">
+      <c r="N138" s="17" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A137" s="21" t="s">
+    <row r="139" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A139" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B139" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C139" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D139" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E139" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="F139" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="G139" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="H137" s="20" t="s">
+      <c r="H139" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="I137" s="21" t="s">
+      <c r="I139" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="J137" s="20" t="s">
+      <c r="J139" s="20" t="s">
         <v>939</v>
       </c>
-      <c r="K137" s="21" t="s">
+      <c r="K139" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="L137" s="20" t="s">
+      <c r="L139" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="M137" s="21" t="s">
+      <c r="M139" s="21" t="s">
         <v>934</v>
       </c>
-      <c r="N137" s="20" t="s">
+      <c r="N139" s="20" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="8" customHeight="1">
-      <c r="A138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N138" s="19"/>
-    </row>
-    <row r="139" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A139" s="22" t="s">
+    <row r="140" spans="1:14" ht="8" customHeight="1">
+      <c r="A140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N140" s="19"/>
+    </row>
+    <row r="141" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A141" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="B139" s="22" t="s">
+      <c r="B141" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C141" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D141" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E141" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="F139" s="17" t="s">
+      <c r="F141" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="G141" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="H139" s="17" t="s">
+      <c r="H141" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="I139" s="17" t="s">
+      <c r="I141" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="J139" s="17" t="s">
+      <c r="J141" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="K139" s="17" t="s">
+      <c r="K141" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="L139" s="17" t="s">
+      <c r="L141" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="M139" s="17" t="s">
+      <c r="M141" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="N139" s="17" t="s">
+      <c r="N141" s="17" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A140" s="21" t="s">
+    <row r="142" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A142" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B142" s="20" t="s">
         <v>972</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C142" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D142" s="20" t="s">
         <v>969</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E142" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F142" s="20" t="s">
         <v>966</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G142" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="H140" s="20" t="s">
+      <c r="H142" s="20" t="s">
         <v>963</v>
       </c>
-      <c r="I140" s="21" t="s">
+      <c r="I142" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="J140" s="20" t="s">
+      <c r="J142" s="20" t="s">
         <v>960</v>
       </c>
-      <c r="K140" s="21" t="s">
+      <c r="K142" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="L140" s="20" t="s">
+      <c r="L142" s="20" t="s">
         <v>957</v>
       </c>
-      <c r="M140" s="21" t="s">
+      <c r="M142" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="N140" s="20" t="s">
+      <c r="N142" s="20" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="8" customHeight="1">
-      <c r="A141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L141" s="19"/>
-      <c r="M141" s="24" t="s">
+    <row r="143" spans="1:14" ht="8" customHeight="1">
+      <c r="A143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L143" s="19"/>
+      <c r="M143" s="24" t="s">
         <v>956</v>
       </c>
-      <c r="N141" s="24" t="s">
+      <c r="N143" s="24" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A142" s="22" t="s">
+    <row r="144" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A144" s="22" t="s">
         <v>974</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B144" s="22" t="s">
         <v>974</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C144" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D144" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="E142" s="17" t="s">
+      <c r="E144" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F144" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="G142" s="17" t="s">
+      <c r="G144" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="H142" s="17" t="s">
+      <c r="H144" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="I142" s="17" t="s">
+      <c r="I144" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="J142" s="17" t="s">
+      <c r="J144" s="17" t="s">
         <v>962</v>
       </c>
-      <c r="K142" s="17" t="s">
+      <c r="K144" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="L142" s="17" t="s">
+      <c r="L144" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="M142" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N142" s="17"/>
-    </row>
-    <row r="143" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A143" s="21" t="s">
+      <c r="M144" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N144" s="17"/>
+    </row>
+    <row r="145" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A145" s="21" t="s">
         <v>994</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B145" s="20" t="s">
         <v>993</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C145" s="21" t="s">
         <v>991</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="D145" s="20" t="s">
         <v>990</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E145" s="21" t="s">
         <v>988</v>
       </c>
-      <c r="F143" s="20" t="s">
+      <c r="F145" s="20" t="s">
         <v>987</v>
       </c>
-      <c r="G143" s="21" t="s">
+      <c r="G145" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="H145" s="20" t="s">
         <v>984</v>
       </c>
-      <c r="I143" s="21" t="s">
+      <c r="I145" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="J143" s="20" t="s">
+      <c r="J145" s="20" t="s">
         <v>981</v>
       </c>
-      <c r="K143" s="21" t="s">
+      <c r="K145" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="L143" s="20" t="s">
+      <c r="L145" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="M143" s="21" t="s">
+      <c r="M145" s="21" t="s">
         <v>976</v>
       </c>
-      <c r="N143" s="20" t="s">
+      <c r="N145" s="20" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="8" customHeight="1">
-      <c r="A144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L144" s="19"/>
-      <c r="M144" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N144" s="19"/>
-    </row>
-    <row r="145" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A145" s="22" t="s">
+    <row r="146" spans="1:14" ht="8" customHeight="1">
+      <c r="A146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N146" s="19"/>
+    </row>
+    <row r="147" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A147" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B147" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C147" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D147" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E147" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F147" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G147" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="H145" s="17" t="s">
+      <c r="H147" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="I145" s="17" t="s">
+      <c r="I147" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="J145" s="17" t="s">
+      <c r="J147" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="K145" s="17" t="s">
+      <c r="K147" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="L145" s="17" t="s">
+      <c r="L147" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="M145" s="17" t="s">
+      <c r="M147" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="N145" s="17" t="s">
+      <c r="N147" s="17" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A146" s="21" t="s">
+    <row r="148" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A148" s="21" t="s">
         <v>1015</v>
       </c>
-      <c r="B146" s="20" t="s">
+      <c r="B148" s="20" t="s">
         <v>1014</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C148" s="21" t="s">
         <v>1012</v>
       </c>
-      <c r="D146" s="20" t="s">
+      <c r="D148" s="20" t="s">
         <v>1011</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E148" s="21" t="s">
         <v>1009</v>
       </c>
-      <c r="F146" s="20" t="s">
+      <c r="F148" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="G146" s="21" t="s">
+      <c r="G148" s="21" t="s">
         <v>1006</v>
       </c>
-      <c r="H146" s="20" t="s">
+      <c r="H148" s="20" t="s">
         <v>1005</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="I148" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="J146" s="20" t="s">
+      <c r="J148" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="K146" s="21" t="s">
+      <c r="K148" s="21" t="s">
         <v>1000</v>
       </c>
-      <c r="L146" s="20" t="s">
+      <c r="L148" s="20" t="s">
         <v>999</v>
       </c>
-      <c r="M146" s="21" t="s">
+      <c r="M148" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="N146" s="20" t="s">
+      <c r="N148" s="20" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="8" customHeight="1">
-      <c r="A147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N147" s="19"/>
-    </row>
-    <row r="148" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A148" s="22" t="s">
+    <row r="149" spans="1:14" ht="8" customHeight="1">
+      <c r="A149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N149" s="19"/>
+    </row>
+    <row r="150" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A150" s="22" t="s">
         <v>1016</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B150" s="22" t="s">
         <v>1016</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C150" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D150" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E150" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="F148" s="17" t="s">
+      <c r="F150" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="G148" s="17" t="s">
+      <c r="G150" s="17" t="s">
         <v>1007</v>
       </c>
-      <c r="H148" s="17" t="s">
+      <c r="H150" s="17" t="s">
         <v>1007</v>
       </c>
-      <c r="I148" s="17" t="s">
+      <c r="I150" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="J148" s="17" t="s">
+      <c r="J150" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="K148" s="17" t="s">
+      <c r="K150" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="L148" s="17" t="s">
+      <c r="L150" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="M148" s="17" t="s">
+      <c r="M150" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="N148" s="17" t="s">
+      <c r="N150" s="17" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A149" s="21" t="s">
+    <row r="151" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A151" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="B151" s="20" t="s">
         <v>1035</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C151" s="21" t="s">
         <v>1033</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D151" s="20" t="s">
         <v>1032</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E151" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="F149" s="20" t="s">
+      <c r="F151" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G151" s="21" t="s">
         <v>1027</v>
       </c>
-      <c r="H149" s="20" t="s">
+      <c r="H151" s="20" t="s">
         <v>1026</v>
       </c>
-      <c r="I149" s="21" t="s">
+      <c r="I151" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="J149" s="20" t="s">
+      <c r="J151" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="K149" s="21" t="s">
+      <c r="K151" s="21" t="s">
         <v>1021</v>
       </c>
-      <c r="L149" s="20" t="s">
+      <c r="L151" s="20" t="s">
         <v>1020</v>
       </c>
-      <c r="M149" s="21" t="s">
+      <c r="M151" s="21" t="s">
         <v>1018</v>
       </c>
-      <c r="N149" s="20" t="s">
+      <c r="N151" s="20" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="8" customHeight="1">
-      <c r="A150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N150" s="19"/>
-    </row>
-    <row r="151" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A151" s="22" t="s">
+    <row r="152" spans="1:14" ht="8" customHeight="1">
+      <c r="A152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N152" s="19"/>
+    </row>
+    <row r="153" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A153" s="22" t="s">
         <v>1037</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B153" s="22" t="s">
         <v>1037</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C153" s="17" t="s">
         <v>1034</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D153" s="17" t="s">
         <v>1034</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E153" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F153" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G153" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="H151" s="17" t="s">
+      <c r="H153" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="I151" s="17" t="s">
+      <c r="I153" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="J151" s="17" t="s">
+      <c r="J153" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="K151" s="17" t="s">
+      <c r="K153" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="L151" s="17" t="s">
+      <c r="L153" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="M151" s="17" t="s">
+      <c r="M153" s="17" t="s">
         <v>1019</v>
       </c>
-      <c r="N151" s="17" t="s">
+      <c r="N153" s="17" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A152" s="21" t="s">
+    <row r="154" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A154" s="21" t="s">
         <v>1057</v>
       </c>
-      <c r="B152" s="20" t="s">
+      <c r="B154" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C154" s="21" t="s">
         <v>1054</v>
       </c>
-      <c r="D152" s="20" t="s">
+      <c r="D154" s="20" t="s">
         <v>1053</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E154" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="F152" s="20" t="s">
+      <c r="F154" s="20" t="s">
         <v>1050</v>
       </c>
-      <c r="G152" s="21" t="s">
+      <c r="G154" s="21" t="s">
         <v>1048</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="H154" s="20" t="s">
         <v>1047</v>
       </c>
-      <c r="I152" s="21" t="s">
+      <c r="I154" s="21" t="s">
         <v>1045</v>
       </c>
-      <c r="J152" s="20" t="s">
+      <c r="J154" s="20" t="s">
         <v>1044</v>
       </c>
-      <c r="K152" s="21" t="s">
+      <c r="K154" s="21" t="s">
         <v>1042</v>
       </c>
-      <c r="L152" s="20" t="s">
+      <c r="L154" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="M152" s="21" t="s">
+      <c r="M154" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="N152" s="20" t="s">
+      <c r="N154" s="20" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="8" customHeight="1">
-      <c r="A153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N153" s="19"/>
-    </row>
-    <row r="154" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A154" s="22" t="s">
+    <row r="155" spans="1:14" ht="8" customHeight="1">
+      <c r="A155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N155" s="19"/>
+    </row>
+    <row r="156" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A156" s="22" t="s">
         <v>1058</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B156" s="22" t="s">
         <v>1058</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C156" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D156" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E156" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F156" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="G154" s="17" t="s">
+      <c r="G156" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="H154" s="17" t="s">
+      <c r="H156" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="I154" s="17" t="s">
+      <c r="I156" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="J154" s="17" t="s">
+      <c r="J156" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="K154" s="17" t="s">
+      <c r="K156" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="L154" s="17" t="s">
+      <c r="L156" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="M154" s="17" t="s">
+      <c r="M156" s="17" t="s">
         <v>1040</v>
       </c>
-      <c r="N154" s="17" t="s">
+      <c r="N156" s="17" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A155" s="21" t="s">
+    <row r="157" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A157" s="21" t="s">
         <v>1074</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B157" s="20" t="s">
         <v>1073</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C157" s="21" t="s">
         <v>1072</v>
       </c>
-      <c r="D155" s="20" t="s">
+      <c r="D157" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E157" s="21" t="s">
         <v>1070</v>
       </c>
-      <c r="F155" s="20" t="s">
+      <c r="F157" s="20" t="s">
         <v>1069</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G157" s="21" t="s">
         <v>1068</v>
       </c>
-      <c r="H155" s="20" t="s">
+      <c r="H157" s="20" t="s">
         <v>1067</v>
       </c>
-      <c r="I155" s="21" t="s">
+      <c r="I157" s="21" t="s">
         <v>1066</v>
       </c>
-      <c r="J155" s="20" t="s">
+      <c r="J157" s="20" t="s">
         <v>1065</v>
       </c>
-      <c r="K155" s="21" t="s">
+      <c r="K157" s="21" t="s">
         <v>1063</v>
       </c>
-      <c r="L155" s="20" t="s">
+      <c r="L157" s="20" t="s">
         <v>1062</v>
       </c>
-      <c r="M155" s="21" t="s">
+      <c r="M157" s="21" t="s">
         <v>1060</v>
       </c>
-      <c r="N155" s="20" t="s">
+      <c r="N157" s="20" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="8" customHeight="1">
-      <c r="A156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N156" s="19"/>
-    </row>
-    <row r="157" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A157" s="22" t="s">
+    <row r="158" spans="1:14" ht="8" customHeight="1">
+      <c r="A158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N158" s="19"/>
+    </row>
+    <row r="159" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A159" s="22" t="s">
         <v>1075</v>
       </c>
-      <c r="B157" s="22" t="s">
+      <c r="B159" s="22" t="s">
         <v>1075</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C159" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D159" s="17" t="s">
         <v>989</v>
       </c>
-      <c r="E157" s="17" t="s">
+      <c r="E159" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="F157" s="17" t="s">
+      <c r="F159" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="G157" s="17" t="s">
+      <c r="G159" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="H157" s="17" t="s">
+      <c r="H159" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="I157" s="17" t="s">
+      <c r="I159" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="J157" s="17" t="s">
+      <c r="J159" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="K157" s="17" t="s">
+      <c r="K159" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="L157" s="17" t="s">
+      <c r="L159" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="M157" s="17" t="s">
+      <c r="M159" s="17" t="s">
         <v>1061</v>
       </c>
-      <c r="N157" s="17" t="s">
+      <c r="N159" s="17" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A158" s="21" t="s">
+    <row r="160" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A160" s="21" t="s">
         <v>1089</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B160" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C160" s="21" t="s">
         <v>1087</v>
       </c>
-      <c r="D158" s="20" t="s">
+      <c r="D160" s="20" t="s">
         <v>1086</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E160" s="21" t="s">
         <v>1085</v>
       </c>
-      <c r="F158" s="20" t="s">
+      <c r="F160" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="G158" s="21" t="s">
+      <c r="G160" s="21" t="s">
         <v>1083</v>
       </c>
-      <c r="H158" s="20" t="s">
+      <c r="H160" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="I158" s="21" t="s">
+      <c r="I160" s="21" t="s">
         <v>1081</v>
       </c>
-      <c r="J158" s="20" t="s">
+      <c r="J160" s="20" t="s">
         <v>1080</v>
       </c>
-      <c r="K158" s="21" t="s">
+      <c r="K160" s="21" t="s">
         <v>1079</v>
       </c>
-      <c r="L158" s="20" t="s">
+      <c r="L160" s="20" t="s">
         <v>1078</v>
       </c>
-      <c r="M158" s="21" t="s">
+      <c r="M160" s="21" t="s">
         <v>1077</v>
       </c>
-      <c r="N158" s="20" t="s">
+      <c r="N160" s="20" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="8" customHeight="1">
-      <c r="A159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N159" s="19"/>
-    </row>
-    <row r="160" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A160" s="22" t="s">
+    <row r="161" spans="1:14" ht="8" customHeight="1">
+      <c r="A161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N161" s="19"/>
+    </row>
+    <row r="162" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A162" s="22" t="s">
         <v>1090</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B162" s="22" t="s">
         <v>1090</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C162" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D162" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E162" s="17" t="s">
         <v>1007</v>
       </c>
-      <c r="F160" s="17" t="s">
+      <c r="F162" s="17" t="s">
         <v>1007</v>
       </c>
-      <c r="G160" s="17" t="s">
+      <c r="G162" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="H160" s="17" t="s">
+      <c r="H162" s="17" t="s">
         <v>1004</v>
       </c>
-      <c r="I160" s="17" t="s">
+      <c r="I162" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="J160" s="17" t="s">
+      <c r="J162" s="17" t="s">
         <v>1001</v>
       </c>
-      <c r="K160" s="17" t="s">
+      <c r="K162" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="L160" s="17" t="s">
+      <c r="L162" s="17" t="s">
         <v>998</v>
       </c>
-      <c r="M160" s="17" t="s">
+      <c r="M162" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="N160" s="17" t="s">
+      <c r="N162" s="17" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A161" s="21" t="s">
+    <row r="163" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A163" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B163" s="20" t="s">
         <v>1103</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C163" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="20" t="s">
+      <c r="D163" s="20" t="s">
         <v>1102</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E163" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F161" s="20" t="s">
+      <c r="F163" s="20" t="s">
         <v>1101</v>
       </c>
-      <c r="G161" s="21" t="s">
+      <c r="G163" s="21" t="s">
         <v>1099</v>
       </c>
-      <c r="H161" s="20" t="s">
+      <c r="H163" s="20" t="s">
         <v>1098</v>
       </c>
-      <c r="I161" s="21" t="s">
+      <c r="I163" s="21" t="s">
         <v>1097</v>
       </c>
-      <c r="J161" s="20" t="s">
+      <c r="J163" s="20" t="s">
         <v>1096</v>
       </c>
-      <c r="K161" s="21" t="s">
+      <c r="K163" s="21" t="s">
         <v>1094</v>
       </c>
-      <c r="L161" s="20" t="s">
+      <c r="L163" s="20" t="s">
         <v>1093</v>
       </c>
-      <c r="M161" s="21" t="s">
+      <c r="M163" s="21" t="s">
         <v>1092</v>
       </c>
-      <c r="N161" s="20" t="s">
+      <c r="N163" s="20" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="8" customHeight="1">
-      <c r="A162" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="19"/>
-      <c r="G162" s="24" t="s">
+    <row r="164" spans="1:14" ht="8" customHeight="1">
+      <c r="A164" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="19"/>
+      <c r="G164" s="24" t="s">
         <v>1100</v>
       </c>
-      <c r="H162" s="24" t="s">
+      <c r="H164" s="24" t="s">
         <v>1100</v>
       </c>
-      <c r="I162" s="24" t="s">
+      <c r="I164" s="24" t="s">
         <v>1095</v>
       </c>
-      <c r="J162" s="24" t="s">
+      <c r="J164" s="24" t="s">
         <v>1095</v>
       </c>
-      <c r="K162" s="24" t="s">
+      <c r="K164" s="24" t="s">
         <v>1095</v>
       </c>
-      <c r="L162" s="24" t="s">
+      <c r="L164" s="24" t="s">
         <v>1095</v>
       </c>
-      <c r="M162" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N162" s="19"/>
-    </row>
-    <row r="163" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A163" s="22" t="s">
+      <c r="M164" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N164" s="19"/>
+    </row>
+    <row r="165" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A165" s="22" t="s">
         <v>1104</v>
       </c>
-      <c r="B163" s="22" t="s">
+      <c r="B165" s="22" t="s">
         <v>1104</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C165" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D165" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="E163" s="17" t="s">
+      <c r="E165" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="F163" s="17" t="s">
+      <c r="F165" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="G163" s="17" t="s">
+      <c r="G165" s="17" t="s">
         <v>1019</v>
       </c>
-      <c r="H163" s="17" t="s">
+      <c r="H165" s="17" t="s">
         <v>1019</v>
       </c>
-      <c r="I163" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J163" s="17"/>
-      <c r="K163" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L163" s="17"/>
-      <c r="M163" s="17" t="s">
+      <c r="I165" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17" t="s">
         <v>1013</v>
       </c>
-      <c r="N163" s="17" t="s">
+      <c r="N165" s="17" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A164" s="21" t="s">
+    <row r="166" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A166" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B166" s="20" t="s">
         <v>1112</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="C166" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D166" s="20" t="s">
         <v>1111</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E166" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F164" s="20" t="s">
+      <c r="F166" s="20" t="s">
         <v>1110</v>
       </c>
-      <c r="G164" s="21" t="s">
+      <c r="G166" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H164" s="20" t="s">
+      <c r="H166" s="20" t="s">
         <v>1108</v>
       </c>
-      <c r="I164" s="21" t="s">
+      <c r="I166" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J164" s="20" t="s">
+      <c r="J166" s="20" t="s">
         <v>1107</v>
       </c>
-      <c r="K164" s="21" t="s">
+      <c r="K166" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L164" s="20" t="s">
+      <c r="L166" s="20" t="s">
         <v>1106</v>
       </c>
-      <c r="M164" s="21" t="s">
+      <c r="M166" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N164" s="20" t="s">
+      <c r="N166" s="20" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="8" customHeight="1">
-      <c r="A165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="24" t="s">
+    <row r="167" spans="1:14" ht="8" customHeight="1">
+      <c r="A167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="19"/>
+      <c r="G167" s="24" t="s">
         <v>1109</v>
       </c>
-      <c r="H165" s="24" t="s">
+      <c r="H167" s="24" t="s">
         <v>1109</v>
       </c>
-      <c r="I165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N165" s="19"/>
-    </row>
-    <row r="166" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A166" s="22" t="s">
+      <c r="I167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N167" s="19"/>
+    </row>
+    <row r="168" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A168" s="22" t="s">
         <v>1113</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B168" s="22" t="s">
         <v>1113</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C168" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D168" s="17" t="s">
         <v>1043</v>
       </c>
-      <c r="E166" s="17" t="s">
+      <c r="E168" s="17" t="s">
         <v>1040</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="F168" s="17" t="s">
         <v>1040</v>
       </c>
-      <c r="G166" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17" t="s">
+      <c r="G168" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17" t="s">
         <v>1034</v>
       </c>
-      <c r="J166" s="17" t="s">
+      <c r="J168" s="17" t="s">
         <v>1034</v>
       </c>
-      <c r="K166" s="17" t="s">
+      <c r="K168" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="L166" s="17" t="s">
+      <c r="L168" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="M166" s="17" t="s">
+      <c r="M168" s="17" t="s">
         <v>1028</v>
       </c>
-      <c r="N166" s="17" t="s">
+      <c r="N168" s="17" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A167" s="21" t="s">
+    <row r="169" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A169" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="20" t="s">
+      <c r="B169" s="20" t="s">
         <v>1121</v>
       </c>
-      <c r="C167" s="21" t="s">
+      <c r="C169" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D169" s="20" t="s">
         <v>1120</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E169" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F167" s="20" t="s">
+      <c r="F169" s="20" t="s">
         <v>1119</v>
       </c>
-      <c r="G167" s="21" t="s">
+      <c r="G169" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="H169" s="20" t="s">
         <v>1118</v>
       </c>
-      <c r="I167" s="21" t="s">
+      <c r="I169" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="J169" s="20" t="s">
         <v>1117</v>
       </c>
-      <c r="K167" s="21" t="s">
+      <c r="K169" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="L169" s="20" t="s">
         <v>1115</v>
       </c>
-      <c r="M167" s="21" t="s">
+      <c r="M169" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="N169" s="20" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="8" customHeight="1">
-      <c r="A168" s="24" t="s">
+    <row r="170" spans="1:14" ht="8" customHeight="1">
+      <c r="A170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="E168" s="24" t="s">
+      <c r="E170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="F168" s="24" t="s">
+      <c r="F170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="G168" s="24" t="s">
+      <c r="G170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="H168" s="24" t="s">
+      <c r="H170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="I168" s="24" t="s">
+      <c r="I170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J168" s="24" t="s">
+      <c r="J170" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="K168" s="24" t="s">
+      <c r="K170" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="L168" s="24" t="s">
+      <c r="L170" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="M168" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="N168" s="19"/>
-    </row>
-    <row r="169" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A169" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17" t="s">
+      <c r="M170" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N170" s="19"/>
+    </row>
+    <row r="171" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A171" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17" t="s">
         <v>1061</v>
       </c>
-      <c r="D169" s="17" t="s">
+      <c r="D171" s="17" t="s">
         <v>1061</v>
       </c>
-      <c r="E169" s="17" t="s">
+      <c r="E171" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="F169" s="17" t="s">
+      <c r="F171" s="17" t="s">
         <v>1055</v>
       </c>
-      <c r="G169" s="17" t="s">
+      <c r="G171" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H171" s="17" t="s">
         <v>1052</v>
       </c>
-      <c r="I169" s="17" t="s">
+      <c r="I171" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="J169" s="17" t="s">
+      <c r="J171" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="K169" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L169" s="17"/>
-      <c r="M169" s="17" t="s">
+      <c r="K171" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17" t="s">
         <v>1046</v>
       </c>
-      <c r="N169" s="17" t="s">
+      <c r="N171" s="17" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="9.2" customHeight="1">
-      <c r="A170" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G170" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J170" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K170" s="21" t="s">
+    <row r="172" spans="1:14" ht="9.2" customHeight="1">
+      <c r="A172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K172" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="L170" s="20" t="s">
+      <c r="L172" s="20" t="s">
         <v>1124</v>
       </c>
-      <c r="M170" s="21" t="s">
+      <c r="M172" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N170" s="20" t="s">
+      <c r="N172" s="20" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="8" customHeight="1">
-      <c r="A171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="19"/>
-      <c r="C171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="19"/>
-      <c r="G171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J171" s="19"/>
-      <c r="K171" s="24" t="s">
+    <row r="173" spans="1:14" ht="8" customHeight="1">
+      <c r="A173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J173" s="19"/>
+      <c r="K173" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="L171" s="24" t="s">
+      <c r="L173" s="24" t="s">
         <v>1125</v>
       </c>
-      <c r="M171" s="24" t="s">
+      <c r="M173" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="N171" s="24" t="s">
+      <c r="N173" s="24" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="11.7" customHeight="1">
-      <c r="A172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J172" s="17"/>
-      <c r="K172" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L172" s="17"/>
-      <c r="M172" s="17" t="s">
+    <row r="174" spans="1:14" ht="11.7" customHeight="1">
+      <c r="A174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="17"/>
+      <c r="C174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17" t="s">
         <v>1064</v>
       </c>
-      <c r="N172" s="17" t="s">
+      <c r="N174" s="17" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -15353,19 +15353,19 @@
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M93:N93"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K93:L93"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I93:J93"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G93:H93"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E93:F93"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A93:B93"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="K6:L6"/>
@@ -15772,384 +15772,384 @@
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A89:B89"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="M97:N97"/>
     <mergeCell ref="M96:N96"/>
-    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M95:N95"/>
     <mergeCell ref="K96:L96"/>
-    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K95:L95"/>
     <mergeCell ref="I96:J96"/>
-    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="G96:H96"/>
-    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G95:H95"/>
     <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E95:F95"/>
     <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="A96:B96"/>
-    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="M99:N99"/>
-    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M98:N98"/>
     <mergeCell ref="K99:L99"/>
-    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K98:L98"/>
     <mergeCell ref="I99:J99"/>
-    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I98:J98"/>
     <mergeCell ref="G99:H99"/>
-    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G98:H98"/>
     <mergeCell ref="E99:F99"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E98:F98"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C98:D98"/>
     <mergeCell ref="A99:B99"/>
-    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="M102:N102"/>
-    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M101:N101"/>
     <mergeCell ref="K102:L102"/>
-    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K101:L101"/>
     <mergeCell ref="I102:J102"/>
-    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I101:J101"/>
     <mergeCell ref="G102:H102"/>
-    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="G101:H101"/>
     <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E101:F101"/>
     <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C101:D101"/>
     <mergeCell ref="A102:B102"/>
-    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="M105:N105"/>
-    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M104:N104"/>
     <mergeCell ref="K105:L105"/>
-    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K104:L104"/>
     <mergeCell ref="I105:J105"/>
-    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I104:J104"/>
     <mergeCell ref="G105:H105"/>
-    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G104:H104"/>
     <mergeCell ref="E105:F105"/>
-    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E104:F104"/>
     <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="A105:B105"/>
-    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="A104:B104"/>
     <mergeCell ref="M108:N108"/>
-    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M107:N107"/>
     <mergeCell ref="K108:L108"/>
-    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="K107:L107"/>
     <mergeCell ref="I108:J108"/>
-    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="I107:J107"/>
     <mergeCell ref="G108:H108"/>
-    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G107:H107"/>
     <mergeCell ref="E108:F108"/>
-    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E107:F107"/>
     <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C107:D107"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="M112:N112"/>
+    <mergeCell ref="A107:B107"/>
     <mergeCell ref="M111:N111"/>
-    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="M110:N110"/>
     <mergeCell ref="K111:L111"/>
-    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="K110:L110"/>
     <mergeCell ref="I111:J111"/>
-    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="I110:J110"/>
     <mergeCell ref="G111:H111"/>
-    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G110:H110"/>
     <mergeCell ref="E111:F111"/>
-    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C110:D110"/>
     <mergeCell ref="A111:B111"/>
-    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="A110:B110"/>
     <mergeCell ref="M114:N114"/>
-    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="M113:N113"/>
     <mergeCell ref="K114:L114"/>
-    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K113:L113"/>
     <mergeCell ref="I114:J114"/>
-    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="I113:J113"/>
     <mergeCell ref="G114:H114"/>
-    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="G113:H113"/>
     <mergeCell ref="E114:F114"/>
-    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E113:F113"/>
     <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C113:D113"/>
     <mergeCell ref="A114:B114"/>
-    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="A113:B113"/>
     <mergeCell ref="M117:N117"/>
-    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M116:N116"/>
     <mergeCell ref="K117:L117"/>
-    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K116:L116"/>
     <mergeCell ref="I117:J117"/>
-    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="I116:J116"/>
     <mergeCell ref="G117:H117"/>
-    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G116:H116"/>
     <mergeCell ref="E117:F117"/>
-    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E116:F116"/>
     <mergeCell ref="C117:D117"/>
-    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C116:D116"/>
     <mergeCell ref="A117:B117"/>
-    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="M120:N120"/>
-    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="M119:N119"/>
     <mergeCell ref="K120:L120"/>
-    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="K119:L119"/>
     <mergeCell ref="I120:J120"/>
-    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="I119:J119"/>
     <mergeCell ref="G120:H120"/>
-    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="G119:H119"/>
     <mergeCell ref="E120:F120"/>
-    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E119:F119"/>
     <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C119:D119"/>
     <mergeCell ref="A120:B120"/>
-    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="A119:B119"/>
     <mergeCell ref="M123:N123"/>
-    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M122:N122"/>
     <mergeCell ref="K123:L123"/>
-    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K122:L122"/>
     <mergeCell ref="I123:J123"/>
-    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I122:J122"/>
     <mergeCell ref="G123:H123"/>
-    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G122:H122"/>
     <mergeCell ref="E123:F123"/>
-    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E122:F122"/>
     <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C122:D122"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="A122:B122"/>
     <mergeCell ref="M126:N126"/>
-    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M125:N125"/>
     <mergeCell ref="K126:L126"/>
-    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K125:L125"/>
     <mergeCell ref="I126:J126"/>
-    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I125:J125"/>
     <mergeCell ref="G126:H126"/>
-    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="E126:F126"/>
-    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E125:F125"/>
     <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C125:D125"/>
     <mergeCell ref="A126:B126"/>
-    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="M129:N129"/>
-    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M128:N128"/>
     <mergeCell ref="K129:L129"/>
-    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K128:L128"/>
     <mergeCell ref="I129:J129"/>
-    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I128:J128"/>
     <mergeCell ref="G129:H129"/>
-    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G128:H128"/>
     <mergeCell ref="E129:F129"/>
-    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E128:F128"/>
     <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C128:D128"/>
     <mergeCell ref="A129:B129"/>
-    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="A128:B128"/>
     <mergeCell ref="M132:N132"/>
-    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M131:N131"/>
     <mergeCell ref="K132:L132"/>
-    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K131:L131"/>
     <mergeCell ref="I132:J132"/>
-    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I131:J131"/>
     <mergeCell ref="G132:H132"/>
-    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G131:H131"/>
     <mergeCell ref="E132:F132"/>
-    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E131:F131"/>
     <mergeCell ref="C132:D132"/>
-    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C131:D131"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="A131:B131"/>
     <mergeCell ref="M135:N135"/>
-    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M134:N134"/>
     <mergeCell ref="K135:L135"/>
-    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K134:L134"/>
     <mergeCell ref="I135:J135"/>
-    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I134:J134"/>
     <mergeCell ref="G135:H135"/>
-    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G134:H134"/>
     <mergeCell ref="E135:F135"/>
-    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E134:F134"/>
     <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C134:D134"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="M138:N138"/>
-    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M137:N137"/>
     <mergeCell ref="K138:L138"/>
-    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K137:L137"/>
     <mergeCell ref="I138:J138"/>
-    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I137:J137"/>
     <mergeCell ref="G138:H138"/>
-    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G137:H137"/>
     <mergeCell ref="E138:F138"/>
-    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E137:F137"/>
     <mergeCell ref="C138:D138"/>
-    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C137:D137"/>
     <mergeCell ref="A138:B138"/>
-    <mergeCell ref="M142:N142"/>
+    <mergeCell ref="A137:B137"/>
     <mergeCell ref="M141:N141"/>
-    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="M140:N140"/>
     <mergeCell ref="K141:L141"/>
-    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="K140:L140"/>
     <mergeCell ref="I141:J141"/>
-    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="I140:J140"/>
     <mergeCell ref="G141:H141"/>
-    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="G140:H140"/>
     <mergeCell ref="E141:F141"/>
-    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E140:F140"/>
     <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C140:D140"/>
     <mergeCell ref="A141:B141"/>
-    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="A140:B140"/>
     <mergeCell ref="M144:N144"/>
-    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M143:N143"/>
     <mergeCell ref="K144:L144"/>
-    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="K143:L143"/>
     <mergeCell ref="I144:J144"/>
-    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I143:J143"/>
     <mergeCell ref="G144:H144"/>
-    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G143:H143"/>
     <mergeCell ref="E144:F144"/>
-    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E143:F143"/>
     <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C143:D143"/>
     <mergeCell ref="A144:B144"/>
-    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="A143:B143"/>
     <mergeCell ref="M147:N147"/>
-    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="M146:N146"/>
     <mergeCell ref="K147:L147"/>
-    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="K146:L146"/>
     <mergeCell ref="I147:J147"/>
-    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I146:J146"/>
     <mergeCell ref="G147:H147"/>
-    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="G146:H146"/>
     <mergeCell ref="E147:F147"/>
-    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E146:F146"/>
     <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C146:D146"/>
     <mergeCell ref="A147:B147"/>
-    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="A146:B146"/>
     <mergeCell ref="M150:N150"/>
-    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M149:N149"/>
     <mergeCell ref="K150:L150"/>
-    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K149:L149"/>
     <mergeCell ref="I150:J150"/>
-    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I149:J149"/>
     <mergeCell ref="G150:H150"/>
-    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G149:H149"/>
     <mergeCell ref="E150:F150"/>
-    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E149:F149"/>
     <mergeCell ref="C150:D150"/>
-    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C149:D149"/>
     <mergeCell ref="A150:B150"/>
-    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="A149:B149"/>
     <mergeCell ref="M153:N153"/>
-    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M152:N152"/>
     <mergeCell ref="K153:L153"/>
-    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K152:L152"/>
     <mergeCell ref="I153:J153"/>
-    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I152:J152"/>
     <mergeCell ref="G153:H153"/>
-    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G152:H152"/>
     <mergeCell ref="E153:F153"/>
-    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E152:F152"/>
     <mergeCell ref="C153:D153"/>
-    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C152:D152"/>
     <mergeCell ref="A153:B153"/>
-    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="A152:B152"/>
     <mergeCell ref="M156:N156"/>
-    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M155:N155"/>
     <mergeCell ref="K156:L156"/>
-    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K155:L155"/>
     <mergeCell ref="I156:J156"/>
-    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I155:J155"/>
     <mergeCell ref="G156:H156"/>
-    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G155:H155"/>
     <mergeCell ref="E156:F156"/>
-    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E155:F155"/>
     <mergeCell ref="C156:D156"/>
-    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C155:D155"/>
     <mergeCell ref="A156:B156"/>
-    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="A155:B155"/>
     <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M158:N158"/>
     <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K158:L158"/>
     <mergeCell ref="I159:J159"/>
-    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I158:J158"/>
     <mergeCell ref="G159:H159"/>
-    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G158:H158"/>
     <mergeCell ref="E159:F159"/>
-    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E158:F158"/>
     <mergeCell ref="C159:D159"/>
-    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C158:D158"/>
     <mergeCell ref="A159:B159"/>
-    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="A158:B158"/>
     <mergeCell ref="M162:N162"/>
-    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M161:N161"/>
     <mergeCell ref="K162:L162"/>
-    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="K161:L161"/>
     <mergeCell ref="I162:J162"/>
-    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I161:J161"/>
     <mergeCell ref="G162:H162"/>
-    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G161:H161"/>
     <mergeCell ref="E162:F162"/>
-    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E161:F161"/>
     <mergeCell ref="C162:D162"/>
-    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C161:D161"/>
     <mergeCell ref="A162:B162"/>
-    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="A161:B161"/>
     <mergeCell ref="M165:N165"/>
-    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M164:N164"/>
     <mergeCell ref="K165:L165"/>
-    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K164:L164"/>
     <mergeCell ref="I165:J165"/>
-    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I164:J164"/>
     <mergeCell ref="G165:H165"/>
-    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G164:H164"/>
     <mergeCell ref="E165:F165"/>
-    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E164:F164"/>
     <mergeCell ref="C165:D165"/>
-    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C164:D164"/>
     <mergeCell ref="A165:B165"/>
-    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="A164:B164"/>
     <mergeCell ref="M168:N168"/>
-    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M167:N167"/>
     <mergeCell ref="K168:L168"/>
-    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K167:L167"/>
     <mergeCell ref="I168:J168"/>
-    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I167:J167"/>
     <mergeCell ref="G168:H168"/>
-    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G167:H167"/>
     <mergeCell ref="E168:F168"/>
-    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E167:F167"/>
     <mergeCell ref="C168:D168"/>
-    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C167:D167"/>
     <mergeCell ref="A168:B168"/>
-    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="A167:B167"/>
     <mergeCell ref="M171:N171"/>
-    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M170:N170"/>
     <mergeCell ref="K171:L171"/>
-    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K170:L170"/>
     <mergeCell ref="I171:J171"/>
-    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I170:J170"/>
     <mergeCell ref="G171:H171"/>
-    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G170:H170"/>
     <mergeCell ref="E171:F171"/>
-    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E170:F170"/>
     <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C170:D170"/>
     <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A173:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.68" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
